--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\373HWS\440 HIVE\CensusData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94262A2-048B-4268-8EDC-1E49F8FA6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A55308-0864-42E8-AE7E-E10DFD053A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" activeTab="4" xr2:uid="{37292BC7-E951-4F14-A991-2C38EC8220FE}"/>
+    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" activeTab="4" xr2:uid="{37292BC7-E951-4F14-A991-2C38EC8220FE}"/>
   </bookViews>
   <sheets>
     <sheet name="New York" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,397 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C75E6FF-439E-44DA-814A-6E151C7D8D04}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.53125" customWidth="1"/>
+    <col min="13" max="13" width="20.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>7322564</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>6.2</v>
+      </c>
+      <c r="D2">
+        <v>6.1</v>
+      </c>
+      <c r="E2">
+        <v>6.4</v>
+      </c>
+      <c r="F2">
+        <v>7.9</v>
+      </c>
+      <c r="G2">
+        <v>9.5</v>
+      </c>
+      <c r="H2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I2">
+        <v>8.1</v>
+      </c>
+      <c r="J2">
+        <v>7.2</v>
+      </c>
+      <c r="K2">
+        <v>5.7</v>
+      </c>
+      <c r="L2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P2">
+        <v>3.2</v>
+      </c>
+      <c r="Q2">
+        <v>2.6</v>
+      </c>
+      <c r="R2">
+        <v>1.8</v>
+      </c>
+      <c r="S2">
+        <v>1.4</v>
+      </c>
+      <c r="T2">
+        <v>1990</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2816274</v>
+      </c>
+      <c r="B4">
+        <v>461100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>190400</v>
+      </c>
+      <c r="E4">
+        <v>328800</v>
+      </c>
+      <c r="G4">
+        <v>334500</v>
+      </c>
+      <c r="H4">
+        <v>431600</v>
+      </c>
+      <c r="I4">
+        <v>488100</v>
+      </c>
+      <c r="J4">
+        <v>198300</v>
+      </c>
+      <c r="K4">
+        <v>198300</v>
+      </c>
+      <c r="L4">
+        <f>61200+58700</f>
+        <v>119900</v>
+      </c>
+      <c r="M4">
+        <v>38909</v>
+      </c>
+      <c r="N4">
+        <v>1990</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>7322564</v>
+      </c>
+      <c r="B6">
+        <v>24.4</v>
+      </c>
+      <c r="C6">
+        <v>43.2</v>
+      </c>
+      <c r="D6">
+        <v>25.2</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>6.7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>1990</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>4884274</v>
+      </c>
+      <c r="B8">
+        <v>688490</v>
+      </c>
+      <c r="C8">
+        <v>858657</v>
+      </c>
+      <c r="D8">
+        <v>1285196</v>
+      </c>
+      <c r="E8">
+        <f>929603-F8</f>
+        <v>704762</v>
+      </c>
+      <c r="F8">
+        <v>224841</v>
+      </c>
+      <c r="G8">
+        <v>631961</v>
+      </c>
+      <c r="H8">
+        <v>490367</v>
+      </c>
+      <c r="K8">
+        <v>1990</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D7BBAF-7BFE-4E67-9D36-40050187883A}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -756,68 +1145,68 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>7322564</v>
+      <c r="A2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>325364</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>303061</v>
       </c>
       <c r="D2">
-        <v>6.1</v>
+        <v>282990</v>
       </c>
       <c r="E2">
-        <v>6.4</v>
+        <v>316293</v>
       </c>
       <c r="F2">
-        <v>7.9</v>
+        <v>373444</v>
       </c>
       <c r="G2">
-        <v>9.5</v>
+        <v>405381</v>
       </c>
       <c r="H2">
-        <v>9.1999999999999993</v>
+        <v>378808</v>
       </c>
       <c r="I2">
-        <v>8.1</v>
+        <v>318340</v>
       </c>
       <c r="J2">
-        <v>7.2</v>
+        <v>262106</v>
       </c>
       <c r="K2">
-        <v>5.7</v>
+        <v>203050</v>
       </c>
       <c r="L2">
-        <v>4.9000000000000004</v>
+        <v>176802</v>
       </c>
       <c r="M2">
-        <v>4.4000000000000004</v>
+        <v>165454</v>
       </c>
       <c r="N2">
-        <v>4.4000000000000004</v>
+        <v>169386</v>
       </c>
       <c r="O2">
-        <v>4.0999999999999996</v>
+        <v>160511</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>130081</v>
       </c>
       <c r="Q2">
-        <v>2.6</v>
+        <v>102227</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>66637</v>
       </c>
       <c r="S2">
-        <v>1.4</v>
+        <v>52067</v>
       </c>
       <c r="T2">
         <v>1990</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -855,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>33</v>
@@ -868,51 +1257,47 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2816274</v>
+      <c r="A4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>461100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>108634</v>
+      </c>
+      <c r="C4">
+        <v>104202</v>
       </c>
       <c r="D4">
-        <v>190400</v>
+        <v>90406</v>
       </c>
       <c r="E4">
-        <v>328800</v>
+        <v>183624</v>
       </c>
       <c r="G4">
-        <v>334500</v>
+        <v>157138</v>
       </c>
       <c r="H4">
-        <v>431600</v>
+        <v>169045</v>
       </c>
       <c r="I4">
-        <v>488100</v>
+        <v>130806</v>
       </c>
       <c r="J4">
-        <v>198300</v>
-      </c>
-      <c r="K4">
-        <v>198300</v>
+        <v>41181</v>
       </c>
       <c r="L4">
-        <f>61200+58700</f>
-        <v>119900</v>
+        <v>35875</v>
       </c>
       <c r="M4">
-        <v>38909</v>
+        <v>26301</v>
       </c>
       <c r="N4">
         <v>1990</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -949,34 +1334,35 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>7322564</v>
+        <v>5105067</v>
       </c>
       <c r="B6">
-        <v>24.4</v>
+        <f>289313+15951+10289+2546+7280+379104</f>
+        <v>704483</v>
       </c>
       <c r="C6">
-        <v>43.2</v>
+        <v>3204947</v>
       </c>
       <c r="D6">
-        <v>25.2</v>
+        <v>1317147</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>7743</v>
       </c>
       <c r="F6">
-        <v>6.7</v>
+        <v>181285</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>5015</v>
       </c>
       <c r="I6">
         <v>1990</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -1018,36 +1404,38 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>4884274</v>
+      <c r="A8" t="s">
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>688490</v>
+        <f>79032+187807</f>
+        <v>266839</v>
       </c>
       <c r="C8">
-        <v>858657</v>
+        <v>326287</v>
       </c>
       <c r="D8">
-        <v>1285196</v>
+        <v>430618</v>
       </c>
       <c r="E8">
-        <f>929603-F8</f>
-        <v>704762</v>
+        <v>302514</v>
       </c>
       <c r="F8">
-        <v>224841</v>
+        <f>42764+38113</f>
+        <v>80877</v>
       </c>
       <c r="G8">
-        <v>631961</v>
+        <v>209523</v>
       </c>
       <c r="H8">
-        <v>490367</v>
+        <f>82420+36343</f>
+        <v>118763</v>
       </c>
       <c r="K8">
         <v>1990</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1055,12 +1443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D7BBAF-7BFE-4E67-9D36-40050187883A}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D95D42-379F-4182-B262-CD146AD90C00}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1144,393 +1532,6 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>325364</v>
-      </c>
-      <c r="C2">
-        <v>303061</v>
-      </c>
-      <c r="D2">
-        <v>282990</v>
-      </c>
-      <c r="E2">
-        <v>316293</v>
-      </c>
-      <c r="F2">
-        <v>373444</v>
-      </c>
-      <c r="G2">
-        <v>405381</v>
-      </c>
-      <c r="H2">
-        <v>378808</v>
-      </c>
-      <c r="I2">
-        <v>318340</v>
-      </c>
-      <c r="J2">
-        <v>262106</v>
-      </c>
-      <c r="K2">
-        <v>203050</v>
-      </c>
-      <c r="L2">
-        <v>176802</v>
-      </c>
-      <c r="M2">
-        <v>165454</v>
-      </c>
-      <c r="N2">
-        <v>169386</v>
-      </c>
-      <c r="O2">
-        <v>160511</v>
-      </c>
-      <c r="P2">
-        <v>130081</v>
-      </c>
-      <c r="Q2">
-        <v>102227</v>
-      </c>
-      <c r="R2">
-        <v>66637</v>
-      </c>
-      <c r="S2">
-        <v>52067</v>
-      </c>
-      <c r="T2">
-        <v>1990</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>108634</v>
-      </c>
-      <c r="C4">
-        <v>104202</v>
-      </c>
-      <c r="D4">
-        <v>90406</v>
-      </c>
-      <c r="E4">
-        <v>183624</v>
-      </c>
-      <c r="G4">
-        <v>157138</v>
-      </c>
-      <c r="H4">
-        <v>169045</v>
-      </c>
-      <c r="I4">
-        <v>130806</v>
-      </c>
-      <c r="J4">
-        <v>41181</v>
-      </c>
-      <c r="L4">
-        <v>35875</v>
-      </c>
-      <c r="M4">
-        <v>26301</v>
-      </c>
-      <c r="N4">
-        <v>1990</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5105067</v>
-      </c>
-      <c r="B6">
-        <f>289313+15951+10289+2546+7280+379104</f>
-        <v>704483</v>
-      </c>
-      <c r="C6">
-        <v>3204947</v>
-      </c>
-      <c r="D6">
-        <v>1317147</v>
-      </c>
-      <c r="E6">
-        <v>7743</v>
-      </c>
-      <c r="F6">
-        <v>181285</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>5015</v>
-      </c>
-      <c r="I6">
-        <v>1990</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <f>79032+187807</f>
-        <v>266839</v>
-      </c>
-      <c r="C8">
-        <v>326287</v>
-      </c>
-      <c r="D8">
-        <v>430618</v>
-      </c>
-      <c r="E8">
-        <v>302514</v>
-      </c>
-      <c r="F8">
-        <f>42764+38113</f>
-        <v>80877</v>
-      </c>
-      <c r="G8">
-        <v>209523</v>
-      </c>
-      <c r="H8">
-        <f>82420+36343</f>
-        <v>118763</v>
-      </c>
-      <c r="K8">
-        <v>1990</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D95D42-379F-4182-B262-CD146AD90C00}">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.9296875" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="19.53125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1833,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAAF110-3A7E-41E5-955E-DC8A243C20FB}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2223,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77B704-DAE4-47B5-894B-529B9E81FE3D}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L27" sqref="L26:M27"/>
     </sheetView>
   </sheetViews>
